--- a/FigureData/markovian_time_data(Figure_S1).xlsx
+++ b/FigureData/markovian_time_data(Figure_S1).xlsx
@@ -52,6 +52,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
